--- a/Data_for_Problem_3.xlsx
+++ b/Data_for_Problem_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annie_000\Documents\GitHub\CS181\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annie_000\Documents\GitHub\CS181\CS181_NEW\CS181\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1176,11 +1176,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="947145200"/>
-        <c:axId val="947149008"/>
+        <c:axId val="-755695440"/>
+        <c:axId val="-755691088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="947145200"/>
+        <c:axId val="-755695440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="947149008"/>
+        <c:crossAx val="-755691088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1231,7 +1231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="947149008"/>
+        <c:axId val="-755691088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.18000000000000002"/>
@@ -1284,7 +1284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="947145200"/>
+        <c:crossAx val="-755695440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2429,7 +2429,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2438,11 +2437,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="843076368"/>
-        <c:axId val="843073104"/>
+        <c:axId val="-755695984"/>
+        <c:axId val="-755693264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="843076368"/>
+        <c:axId val="-755695984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843073104"/>
+        <c:crossAx val="-755693264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2493,7 +2492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="843073104"/>
+        <c:axId val="-755693264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.18000000000000002"/>
@@ -2546,7 +2545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843076368"/>
+        <c:crossAx val="-755695984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4070,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7326,7 +7325,7 @@
   <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
